--- a/Fukuyama/福山チーム/企画書＆スケジュール/作業工程ゲームキャンプ.xlsx
+++ b/Fukuyama/福山チーム/企画書＆スケジュール/作業工程ゲームキャンプ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeokahiroki\Desktop\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeokahiroki\Desktop\GCLUC2019\GameProject\Fukuyama\福山チーム\企画書＆スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C08D413C-A3B0-4C13-8296-3E80B867B958}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09B8322-548E-4146-B6B8-96F92FCFA68F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="21600" windowHeight="9720" xr2:uid="{C9BED77F-0D35-4DFE-B808-232B80966FA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C9BED77F-0D35-4DFE-B808-232B80966FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>作業工程</t>
     <rPh sb="0" eb="2">
@@ -283,10 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィールド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -350,6 +346,34 @@
   </si>
   <si>
     <t>デバッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はやと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くまだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かまた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はばら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まえおか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おがわ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -374,15 +398,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -479,13 +545,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,22 +623,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,10 +1036,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9127D53-FB54-4730-830D-357FFF7D8A43}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -843,22 +1054,67 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" s="13">
+        <v>43535</v>
+      </c>
+      <c r="I1" s="13">
+        <v>43536</v>
+      </c>
+      <c r="J1" s="13">
+        <v>43537</v>
+      </c>
+      <c r="K1" s="13">
+        <v>43538</v>
+      </c>
+      <c r="L1" s="13">
+        <v>43539</v>
+      </c>
+      <c r="M1" s="13">
+        <v>43540</v>
+      </c>
+      <c r="N1" s="13">
+        <v>43541</v>
+      </c>
+      <c r="O1" s="13">
+        <v>43542</v>
+      </c>
+      <c r="P1" s="13">
+        <v>43543</v>
+      </c>
+      <c r="Q1" s="14">
+        <v>43544</v>
+      </c>
+      <c r="R1" s="13">
+        <v>43545</v>
+      </c>
+      <c r="S1" s="13">
+        <v>43546</v>
+      </c>
+      <c r="T1" s="13">
+        <v>43547</v>
+      </c>
+      <c r="U1" s="13">
+        <v>43548</v>
+      </c>
+      <c r="V1" s="13">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -867,597 +1123,816 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="3"/>
+      <c r="I13" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="3"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="J15" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="I19" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="3"/>
+      <c r="C27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="I27" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="3"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" s="3"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="2"/>
-      <c r="C29" s="6" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="2"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="8"/>
+      <c r="K30" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="2"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="8"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="2"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6" t="s">
+      <c r="G32" s="8"/>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="2"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="8"/>
+      <c r="L33" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="2"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="8"/>
+      <c r="L34" s="35"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="3" t="s">
+      <c r="G35" s="8"/>
+      <c r="L35" s="35"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="2"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6" t="s">
+      <c r="F36" s="9"/>
+      <c r="G36" s="8"/>
+      <c r="L36" s="35"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="2"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="8"/>
+      <c r="L37" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="2"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6" t="s">
+      <c r="G38" s="8"/>
+      <c r="L38" s="29"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="2"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="8"/>
+      <c r="L39" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B40" s="3"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="2"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="3" t="s">
+      <c r="G40" s="8"/>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="1"/>
+      <c r="E41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B42" s="3"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="J42" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B44" s="3"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="2"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="2" t="s">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B45" s="3"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="2"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="28"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B46" s="3"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="2"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="2"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="I47" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C50" s="1"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="27"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C51" s="1"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="27"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C52" s="1"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="27"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C53" s="1"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C54" s="1"/>
+      <c r="D54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="27"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C58" s="1"/>
+      <c r="D58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C59" s="1"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C60" s="1"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B2:B43"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C29:C40"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C2:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="D10:D15"/>
+  <mergeCells count="95">
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C30:C40"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C2:C23"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B2:B42"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fukuyama/福山チーム/企画書＆スケジュール/作業工程ゲームキャンプ.xlsx
+++ b/Fukuyama/福山チーム/企画書＆スケジュール/作業工程ゲームキャンプ.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeokahiroki\Desktop\GCLUC2019\GameProject\Fukuyama\福山チーム\企画書＆スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09B8322-548E-4146-B6B8-96F92FCFA68F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DFAFCA-736C-4203-9393-40640680EBF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C9BED77F-0D35-4DFE-B808-232B80966FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$60</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>作業工程</t>
     <rPh sb="0" eb="2">
@@ -353,27 +356,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>はやと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>くまだ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かまた</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>はばら</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まえおか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おがわ</t>
+    <t>宮原</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮原</t>
+    <rPh sb="0" eb="1">
+      <t>ミヤ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釜田</t>
+    <rPh sb="0" eb="2">
+      <t>カマタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小川</t>
+    <rPh sb="0" eb="2">
+      <t>オガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前岡</t>
+    <rPh sb="0" eb="2">
+      <t>マエオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隈田</t>
+    <rPh sb="0" eb="2">
+      <t>クマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽原</t>
+    <rPh sb="0" eb="2">
+      <t>ハバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -398,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,12 +473,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,6 +480,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,16 +671,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -644,83 +755,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,12 +1093,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9127D53-FB54-4730-830D-357FFF7D8A43}">
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <pane ySplit="750" topLeftCell="A46" activePane="bottomLeft"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1054,355 +1111,394 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="6">
         <v>43535</v>
       </c>
-      <c r="I1" s="13">
+      <c r="J1" s="6">
         <v>43536</v>
       </c>
-      <c r="J1" s="13">
+      <c r="K1" s="6">
         <v>43537</v>
       </c>
-      <c r="K1" s="13">
+      <c r="L1" s="6">
         <v>43538</v>
       </c>
-      <c r="L1" s="13">
+      <c r="M1" s="6">
         <v>43539</v>
       </c>
-      <c r="M1" s="13">
+      <c r="N1" s="6">
         <v>43540</v>
       </c>
-      <c r="N1" s="13">
+      <c r="O1" s="6">
         <v>43541</v>
       </c>
-      <c r="O1" s="13">
+      <c r="P1" s="6">
         <v>43542</v>
       </c>
-      <c r="P1" s="13">
+      <c r="Q1" s="6">
         <v>43543</v>
       </c>
-      <c r="Q1" s="14">
+      <c r="R1" s="7">
         <v>43544</v>
       </c>
-      <c r="R1" s="13">
+      <c r="S1" s="6">
         <v>43545</v>
       </c>
-      <c r="S1" s="13">
+      <c r="T1" s="6">
         <v>43546</v>
       </c>
-      <c r="T1" s="13">
+      <c r="U1" s="6">
         <v>43547</v>
       </c>
-      <c r="U1" s="13">
+      <c r="V1" s="6">
         <v>43548</v>
       </c>
-      <c r="V1" s="13">
+      <c r="W1" s="6">
         <v>43549</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="31" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B3" s="22"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="31" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B4" s="22"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="18" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B5" s="22"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="19" t="s">
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B6" s="22"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3" t="s">
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B7" s="22"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3" t="s">
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B10" s="22"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B11" s="22"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="23" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3" t="s">
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B12" s="22"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B13" s="22"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="I13" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="G13" s="22"/>
+      <c r="H13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B14" s="22"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B15" s="22"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="J15" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="3" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B16" s="22"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="22"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="29" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="3" t="s">
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="22"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="22"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="I19" s="29" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="3" t="s">
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="22"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="22"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="I21" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="22"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="22"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="G23" s="22"/>
+      <c r="H23" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="22"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="24" t="s">
+      <c r="G24" s="22"/>
+      <c r="H24" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="22"/>
+      <c r="C25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="3"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="16"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="22"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1410,457 +1506,573 @@
         <v>3</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="3"/>
-      <c r="C27" s="24" t="s">
+      <c r="H26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="22"/>
+      <c r="C27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="I27" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="3"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="3" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="22"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="3"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="3" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="22"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4" t="s">
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="22"/>
+      <c r="C30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="K30" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="3"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="7" t="s">
+      <c r="G30" s="29"/>
+      <c r="H30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="22"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="K31" s="35"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7" t="s">
+      <c r="G31" s="29"/>
+      <c r="H31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="32"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="22"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="K32" s="35"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="3"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4" t="s">
+      <c r="G32" s="29"/>
+      <c r="H32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="32"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B33" s="22"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="L33" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="3"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="7" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="32"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B34" s="22"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="L34" s="35"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="3"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7" t="s">
+      <c r="G34" s="29"/>
+      <c r="H34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="32"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B35" s="22"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="L35" s="35"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7" t="s">
+      <c r="G35" s="29"/>
+      <c r="H35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" s="32"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B36" s="22"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="8"/>
-      <c r="L36" s="35"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="3"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="4" t="s">
+      <c r="F36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" s="32"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B37" s="22"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="L37" s="29" t="s">
+      <c r="G37" s="29"/>
+      <c r="H37" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B38" s="3"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7" t="s">
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B38" s="22"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="L38" s="29"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B39" s="3"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="4" t="s">
+      <c r="G38" s="29"/>
+      <c r="H38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B39" s="22"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="L39" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="3"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7" t="s">
+      <c r="G39" s="29"/>
+      <c r="H39" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B40" s="22"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="L40" s="30"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="3"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B41" s="22"/>
       <c r="C41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="28" t="s">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B42" s="22"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B43" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B42" s="3"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="J42" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B44" s="3"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="3" t="s">
+      <c r="K43" s="35"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B44" s="22"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="J44" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B45" s="3"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="3" t="s">
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B45" s="22"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="J45" s="28"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B46" s="3"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="3" t="s">
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B46" s="22"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="37"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="I47" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" s="38"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C50" s="1"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="27"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G50" s="22"/>
+      <c r="H50" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="37"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C51" s="1"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="27"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G51" s="22"/>
+      <c r="H51" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="37"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="27"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="37"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C53" s="1"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="27"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="37"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1"/>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="27"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="37"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="27"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="37"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="27"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="37"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="27"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="37"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1"/>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="27"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="37"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="27"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G59" s="22"/>
+      <c r="H59" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="37"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="27"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C30:C40"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="H17:H18"/>
+  <autoFilter ref="H1:H60" xr:uid="{D1FEE9B5-2F52-436F-8DF9-EB7FDE9A9C28}"/>
+  <mergeCells count="84">
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B2:B42"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C2:C24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="D2:D10"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="D49:D53"/>
@@ -1877,64 +2089,26 @@
     <mergeCell ref="E54:G54"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C2:C23"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="C30:C40"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B2:B42"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fukuyama/福山チーム/企画書＆スケジュール/作業工程ゲームキャンプ.xlsx
+++ b/Fukuyama/福山チーム/企画書＆スケジュール/作業工程ゲームキャンプ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeokahiroki\Desktop\GCLUC2019\GameProject\Fukuyama\福山チーム\企画書＆スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DFAFCA-736C-4203-9393-40640680EBF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF741C14-B0B4-42EE-9979-D0BD745E575D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C9BED77F-0D35-4DFE-B808-232B80966FA5}"/>
   </bookViews>
@@ -440,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,8 +495,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -633,35 +639,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,12 +658,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -701,19 +679,64 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,62 +745,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,9 +1068,9 @@
   <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="750" topLeftCell="A46" activePane="bottomLeft"/>
+      <pane ySplit="750" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="G1" sqref="G1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="L48" sqref="L48"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1118,49 +1090,49 @@
       <c r="H1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="4">
         <v>43535</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="4">
         <v>43536</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="4">
         <v>43537</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="4">
         <v>43538</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="4">
         <v>43539</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="4">
         <v>43540</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="4">
         <v>43541</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="4">
         <v>43542</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="4">
         <v>43543</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="5">
         <v>43544</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="4">
         <v>43545</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="4">
         <v>43546</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="4">
         <v>43547</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="4">
         <v>43548</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="4">
         <v>43549</v>
       </c>
     </row>
@@ -1171,22 +1143,22 @@
       <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B3" s="22"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="25" t="s">
         <v>12</v>
       </c>
@@ -1195,8 +1167,8 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B4" s="22"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="25" t="s">
         <v>10</v>
       </c>
@@ -1205,9 +1177,9 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B5" s="22"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="29" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="26" t="s">
@@ -1217,9 +1189,9 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B6" s="22"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="26" t="s">
         <v>14</v>
       </c>
@@ -1227,8 +1199,8 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B7" s="22"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="22" t="s">
         <v>8</v>
       </c>
@@ -1237,42 +1209,42 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B8" s="22"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="22" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B9" s="22"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="31"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B10" s="22"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="31" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B11" s="22"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="22" t="s">
@@ -1280,29 +1252,29 @@
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B12" s="22"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B13" s="22"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="22" t="s">
         <v>7</v>
       </c>
@@ -1310,57 +1282,57 @@
         <v>13</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B14" s="22"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B15" s="22"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="33"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B16" s="22"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="33"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="22"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="22" t="s">
@@ -1368,29 +1340,29 @@
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="34"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="22"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="34"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="22"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="22" t="s">
@@ -1398,28 +1370,28 @@
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="22"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" s="22"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1428,15 +1400,15 @@
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" s="22"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="22" t="s">
@@ -1444,15 +1416,15 @@
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" s="22"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="22" t="s">
         <v>7</v>
       </c>
@@ -1460,45 +1432,45 @@
         <v>21</v>
       </c>
       <c r="G23" s="22"/>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="22"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="11"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="22"/>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="35"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="22"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1506,224 +1478,224 @@
         <v>3</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="35"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="22"/>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="22" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="35"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" s="22"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="35"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="22"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="35"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="22"/>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="24"/>
+      <c r="H30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="32"/>
+      <c r="L30" s="12"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="22"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="28" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="8" t="s">
+      <c r="G31" s="24"/>
+      <c r="H31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L31" s="32"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="22"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="28" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="24"/>
+      <c r="H32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="32"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="22"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="13" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="8" t="s">
+      <c r="G33" s="24"/>
+      <c r="H33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M33" s="32"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B34" s="22"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="28" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="8" t="s">
+      <c r="G34" s="24"/>
+      <c r="H34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M34" s="32"/>
+      <c r="M34" s="12"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B35" s="22"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="28" t="s">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="8" t="s">
+      <c r="G35" s="24"/>
+      <c r="H35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M35" s="32"/>
+      <c r="M35" s="12"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B36" s="22"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="28" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="8" t="s">
+      <c r="F36" s="34"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M36" s="32"/>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B37" s="22"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="8" t="s">
+      <c r="G37" s="24"/>
+      <c r="H37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L37" s="12"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B38" s="22"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="28" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="8" t="s">
+      <c r="G38" s="24"/>
+      <c r="H38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L38" s="12"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B39" s="22"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="31" t="s">
+      <c r="G39" s="24"/>
+      <c r="H39" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L39" s="9"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B40" s="22"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="28" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="31" t="s">
+      <c r="G40" s="24"/>
+      <c r="H40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="9"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B41" s="22"/>
@@ -1736,10 +1708,10 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="10"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="22"/>
@@ -1750,68 +1722,68 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K42" s="12"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B43" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="13" t="s">
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="31" t="s">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="35"/>
+      <c r="K43" s="15"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B44" s="22"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="22" t="s">
         <v>38</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="31" t="s">
+      <c r="H44" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K44" s="10"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B45" s="22"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K45" s="10"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B46" s="22"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="22" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J46" s="37"/>
+      <c r="J46" s="17"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
@@ -1824,10 +1796,10 @@
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="10"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C48" s="1"/>
@@ -1837,36 +1809,36 @@
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
-      <c r="H48" s="31" t="s">
+      <c r="H48" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="M48" s="8"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="22" t="s">
-        <v>11</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="E49" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N49" s="38"/>
+      <c r="N49" s="18"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="22"/>
+      <c r="D50" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="E50" s="22" t="s">
         <v>7</v>
       </c>
@@ -1874,52 +1846,52 @@
         <v>13</v>
       </c>
       <c r="G50" s="22"/>
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="37"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C51" s="1"/>
-      <c r="D51" s="22"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="22"/>
-      <c r="H51" s="31" t="s">
+      <c r="H51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="37"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C52" s="1"/>
-      <c r="D52" s="22"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
-      <c r="H52" s="31" t="s">
+      <c r="H52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I52" s="37"/>
+      <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C53" s="1"/>
-      <c r="D53" s="22"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="31" t="s">
+      <c r="H53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I53" s="37"/>
+      <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C54" s="1"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="22" t="s">
         <v>30</v>
       </c>
@@ -1928,26 +1900,26 @@
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="31" t="s">
+      <c r="H54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I54" s="37"/>
+      <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C55" s="1"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
-      <c r="H55" s="31" t="s">
+      <c r="H55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I55" s="37"/>
+      <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C56" s="1"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="1" t="s">
         <v>31</v>
       </c>
@@ -1956,13 +1928,13 @@
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
-      <c r="H56" s="31" t="s">
+      <c r="H56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I56" s="37"/>
+      <c r="I56" s="17"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C57" s="1"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="1" t="s">
         <v>32</v>
       </c>
@@ -1971,13 +1943,13 @@
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I57" s="37"/>
+      <c r="I57" s="17"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C58" s="1"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="22" t="s">
         <v>19</v>
       </c>
@@ -1986,13 +1958,13 @@
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="31" t="s">
+      <c r="H58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="37"/>
+      <c r="I58" s="17"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C59" s="1"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22" t="s">
         <v>7</v>
@@ -2001,35 +1973,76 @@
         <v>21</v>
       </c>
       <c r="G59" s="22"/>
-      <c r="H59" s="31" t="s">
+      <c r="H59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I59" s="37"/>
+      <c r="I59" s="17"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C60" s="1"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="22"/>
-      <c r="H60" s="31" t="s">
+      <c r="H60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I60" s="37"/>
+      <c r="I60" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H60" xr:uid="{D1FEE9B5-2F52-436F-8DF9-EB7FDE9A9C28}"/>
-  <mergeCells count="84">
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
+  <mergeCells count="86">
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C30:C40"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B2:B42"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F38:G38"/>
@@ -2046,36 +2059,20 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="C50:C60"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="F51:G51"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D2:D10"/>
     <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D49:D53"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="E56:G56"/>
@@ -2083,29 +2080,6 @@
     <mergeCell ref="E58:G58"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="C30:C40"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="E33:E35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
